--- a/exp_results/results_large/cost_overall_large.xlsx
+++ b/exp_results/results_large/cost_overall_large.xlsx
@@ -1,38 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salex\Desktop\my_repo\Aircraft_Scheduling\exp_results\results_large\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salex\Desktop\AC_Benchmarks\results_large\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DF403-DCF5-46F6-8462-A7EF4414B5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{500772FE-A689-4261-AA8D-F1AF4E3A629E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="16395" windowHeight="10276"/>
   </bookViews>
   <sheets>
-    <sheet name="cost_overall_large" sheetId="1" r:id="rId1"/>
+    <sheet name="cost_overall_large - Copia" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>Instance</t>
   </si>
@@ -43,56 +31,92 @@
     <t>tmp12dte_kj.lp</t>
   </si>
   <si>
+    <t>tmp18z8y0q7.lp</t>
+  </si>
+  <si>
     <t>tmp1kxbw547.lp</t>
   </si>
   <si>
     <t>tmp4gyvs9na.lp</t>
   </si>
   <si>
+    <t>tmp55y58_gr.lp</t>
+  </si>
+  <si>
     <t>tmp5uomz897.lp</t>
   </si>
   <si>
+    <t>tmp8dkx4fer.lp</t>
+  </si>
+  <si>
+    <t>tmpajcujx0u.lp</t>
+  </si>
+  <si>
     <t>tmpc184hge_.lp</t>
   </si>
   <si>
     <t>tmpgm2awbar.lp</t>
   </si>
   <si>
+    <t>tmpkg9p0fou.lp</t>
+  </si>
+  <si>
     <t>tmpm_a65bgk.lp</t>
   </si>
   <si>
     <t>tmpmd16cj7h.lp</t>
   </si>
   <si>
+    <t>tmppamudayv.lp</t>
+  </si>
+  <si>
     <t>tmpq_qddey0.lp</t>
   </si>
   <si>
+    <t>tmpqkum3t0h.lp</t>
+  </si>
+  <si>
+    <t>tmpwuljzjtl.lp</t>
+  </si>
+  <si>
     <t>tmpxywxuung.lp</t>
   </si>
   <si>
-    <t>AS_chunks_20</t>
-  </si>
-  <si>
-    <t>RS_chunks_70</t>
-  </si>
-  <si>
-    <t>Time_window_60</t>
+    <t>tmpyg8pdvuf.lp</t>
+  </si>
+  <si>
+    <t>tmpzva5fpdp.lp</t>
+  </si>
+  <si>
+    <t>Average:</t>
+  </si>
+  <si>
+    <t>Standard Deviation:</t>
+  </si>
+  <si>
+    <t>3 maximum consecutive idle iterations</t>
+  </si>
+  <si>
+    <t>5 maximum consecutive idle iterations</t>
   </si>
   <si>
     <t>Single-shot</t>
   </si>
   <si>
-    <t>Average:</t>
-  </si>
-  <si>
-    <t>Standard Deviation:</t>
+    <t>AS Chunks 20</t>
+  </si>
+  <si>
+    <t>RS Chunks 70</t>
+  </si>
+  <si>
+    <t>Time-window 60</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -227,8 +251,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -408,8 +440,20 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -524,6 +568,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -569,9 +642,26 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Colore 1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -926,320 +1016,721 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="2.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.9296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.73046875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B1" t="s">
+    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="D1" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>22624</v>
+      </c>
+      <c r="D3" s="4">
+        <v>22624</v>
+      </c>
+      <c r="E3" s="5">
+        <v>62750</v>
+      </c>
+      <c r="F3" s="5">
+        <v>21513</v>
+      </c>
+      <c r="G3">
+        <v>21109</v>
+      </c>
+      <c r="H3" s="10">
+        <v>21614</v>
+      </c>
+      <c r="I3" s="10">
+        <v>20907</v>
+      </c>
+      <c r="J3" s="10">
+        <v>22220</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>21715</v>
+      </c>
+      <c r="D4" s="4">
+        <v>21311</v>
+      </c>
+      <c r="E4" s="5">
+        <v>20604</v>
+      </c>
+      <c r="F4" s="5">
+        <v>20402</v>
+      </c>
+      <c r="G4">
+        <v>19291</v>
+      </c>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>21513</v>
+      </c>
+      <c r="D5" s="4">
+        <v>62326</v>
+      </c>
+      <c r="E5" s="5">
+        <v>21311</v>
+      </c>
+      <c r="F5" s="5">
+        <v>20503</v>
+      </c>
+      <c r="G5">
+        <v>20099</v>
+      </c>
+      <c r="H5" s="10">
+        <v>20705</v>
+      </c>
+      <c r="I5" s="10">
+        <v>20705</v>
+      </c>
+      <c r="J5" s="10">
+        <v>21109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>21109</v>
+      </c>
+      <c r="D6" s="4">
+        <v>19594</v>
+      </c>
+      <c r="E6" s="5">
+        <v>19796</v>
+      </c>
+      <c r="F6" s="5">
+        <v>18988</v>
+      </c>
+      <c r="G6">
+        <v>19392</v>
+      </c>
+      <c r="H6" s="10">
+        <v>19796</v>
+      </c>
+      <c r="I6" s="10">
+        <v>19190</v>
+      </c>
+      <c r="J6" s="10">
+        <v>19897</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>22422</v>
+      </c>
+      <c r="D7" s="4">
+        <v>57518</v>
+      </c>
+      <c r="E7" s="5">
+        <v>21008</v>
+      </c>
+      <c r="F7" s="5">
+        <v>20200</v>
+      </c>
+      <c r="G7">
+        <v>20402</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>21917</v>
+      </c>
+      <c r="D8" s="4">
+        <v>22018</v>
+      </c>
+      <c r="E8" s="5">
+        <v>21109</v>
+      </c>
+      <c r="F8" s="5">
+        <v>20604</v>
+      </c>
+      <c r="G8">
+        <v>20604</v>
+      </c>
+      <c r="H8" s="10">
+        <v>20806</v>
+      </c>
+      <c r="I8" s="10">
+        <v>20705</v>
+      </c>
+      <c r="J8" s="10">
+        <v>60932</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>25048</v>
+      </c>
+      <c r="D9" s="4">
+        <v>84457</v>
+      </c>
+      <c r="E9" s="5">
+        <v>85351</v>
+      </c>
+      <c r="F9" s="5">
+        <v>25351</v>
+      </c>
+      <c r="G9">
+        <v>25351</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>22523</v>
+      </c>
+      <c r="D10" s="4">
+        <v>62922</v>
+      </c>
+      <c r="E10" s="5">
+        <v>65907</v>
+      </c>
+      <c r="F10" s="5">
+        <v>21311</v>
+      </c>
+      <c r="G10">
+        <v>20402</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>22422</v>
+      </c>
+      <c r="D11" s="4">
+        <v>22119</v>
+      </c>
+      <c r="E11" s="5">
+        <v>73139</v>
+      </c>
+      <c r="F11" s="5">
+        <v>21311</v>
+      </c>
+      <c r="G11">
+        <v>20806</v>
+      </c>
+      <c r="H11" s="10">
+        <v>23129</v>
+      </c>
+      <c r="I11" s="10">
+        <v>21614</v>
+      </c>
+      <c r="J11" s="10">
+        <v>21513</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>24240</v>
+      </c>
+      <c r="D12" s="4">
+        <v>75846</v>
+      </c>
+      <c r="E12" s="5">
+        <v>25553</v>
+      </c>
+      <c r="F12" s="5">
+        <v>23735</v>
+      </c>
+      <c r="G12">
+        <v>23735</v>
+      </c>
+      <c r="H12" s="10">
+        <v>59154</v>
+      </c>
+      <c r="I12" s="10">
+        <v>70644</v>
+      </c>
+      <c r="J12" s="10">
+        <v>71452</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C13">
+        <v>24139</v>
+      </c>
+      <c r="D13" s="4">
+        <v>77467</v>
+      </c>
+      <c r="E13" s="5">
+        <v>25048</v>
+      </c>
+      <c r="F13" s="5">
+        <v>24442</v>
+      </c>
+      <c r="G13">
+        <v>35174</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="C14">
+        <v>23129</v>
+      </c>
+      <c r="D14" s="4">
+        <v>21311</v>
+      </c>
+      <c r="E14" s="5">
+        <v>65139</v>
+      </c>
+      <c r="F14" s="5">
+        <v>21008</v>
+      </c>
+      <c r="G14">
+        <v>20806</v>
+      </c>
+      <c r="H14" s="10">
+        <v>66028</v>
+      </c>
+      <c r="I14" s="10">
+        <v>20604</v>
+      </c>
+      <c r="J14" s="10">
+        <v>21210</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C15">
+        <v>22018</v>
+      </c>
+      <c r="D15" s="4">
+        <v>22018</v>
+      </c>
+      <c r="E15" s="5">
+        <v>22422</v>
+      </c>
+      <c r="F15" s="5">
+        <v>20806</v>
+      </c>
+      <c r="G15">
+        <v>20503</v>
+      </c>
+      <c r="H15" s="10">
+        <v>20806</v>
+      </c>
+      <c r="I15" s="10">
+        <v>20503</v>
+      </c>
+      <c r="J15" s="10">
+        <v>21513</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>22624</v>
-      </c>
-      <c r="D2" s="1">
-        <v>22624</v>
-      </c>
-      <c r="E2">
-        <v>62750</v>
-      </c>
-      <c r="F2" s="1">
-        <v>21513</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="C16">
         <v>21109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>21513</v>
-      </c>
-      <c r="D3">
-        <v>62326</v>
-      </c>
-      <c r="E3" s="1">
-        <v>21311</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="D16" s="4">
+        <v>21614</v>
+      </c>
+      <c r="E16" s="5">
+        <v>62811</v>
+      </c>
+      <c r="F16" s="5">
         <v>20503</v>
       </c>
-      <c r="G3" s="1">
-        <v>20099</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4">
+      <c r="G16">
+        <v>19998</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>22321</v>
+      </c>
+      <c r="D17" s="4">
+        <v>72124</v>
+      </c>
+      <c r="E17" s="5">
+        <v>22119</v>
+      </c>
+      <c r="F17" s="5">
+        <v>21008</v>
+      </c>
+      <c r="G17">
+        <v>21412</v>
+      </c>
+      <c r="H17" s="10">
+        <v>20604</v>
+      </c>
+      <c r="I17" s="10">
+        <v>21008</v>
+      </c>
+      <c r="J17" s="10">
         <v>21109</v>
       </c>
-      <c r="D4" s="1">
-        <v>19594</v>
-      </c>
-      <c r="E4" s="1">
-        <v>19796</v>
-      </c>
-      <c r="F4" s="1">
-        <v>18988</v>
-      </c>
-      <c r="G4" s="1">
-        <v>19392</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>23634</v>
+      </c>
+      <c r="D18" s="4">
+        <v>78245</v>
+      </c>
+      <c r="E18" s="5">
+        <v>78659</v>
+      </c>
+      <c r="F18" s="5">
+        <v>67553</v>
+      </c>
+      <c r="G18">
+        <v>24038</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
         <v>21917</v>
       </c>
-      <c r="D5">
-        <v>22018</v>
-      </c>
-      <c r="E5" s="1">
-        <v>21109</v>
-      </c>
-      <c r="F5" s="1">
-        <v>20604</v>
-      </c>
-      <c r="G5" s="1">
-        <v>20604</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>22422</v>
-      </c>
-      <c r="D6" s="1">
-        <v>22119</v>
-      </c>
-      <c r="E6">
-        <v>73139</v>
-      </c>
-      <c r="F6" s="1">
-        <v>21311</v>
-      </c>
-      <c r="G6" s="1">
+      <c r="D19" s="4">
+        <v>20503</v>
+      </c>
+      <c r="E19" s="5">
         <v>20806</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7">
-        <v>24240</v>
-      </c>
-      <c r="D7">
-        <v>75846</v>
-      </c>
-      <c r="E7">
-        <v>25553</v>
-      </c>
-      <c r="F7" s="1">
-        <v>23735</v>
-      </c>
-      <c r="G7" s="1">
-        <v>23735</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="F19" s="5">
+        <v>20705</v>
+      </c>
+      <c r="G19">
+        <v>20402</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20">
         <v>23129</v>
       </c>
-      <c r="D8" s="1">
-        <v>21311</v>
-      </c>
-      <c r="E8">
-        <v>65139</v>
-      </c>
-      <c r="F8" s="1">
-        <v>21008</v>
-      </c>
-      <c r="G8" s="1">
-        <v>20806</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9">
-        <v>22018</v>
-      </c>
-      <c r="D9" s="1">
-        <v>22018</v>
-      </c>
-      <c r="E9">
-        <v>22422</v>
-      </c>
-      <c r="F9" s="1">
-        <v>20806</v>
-      </c>
-      <c r="G9" s="1">
-        <v>20503</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <v>22321</v>
-      </c>
-      <c r="D10">
-        <v>72124</v>
-      </c>
-      <c r="E10" s="1">
-        <v>22119</v>
-      </c>
-      <c r="F10" s="1">
-        <v>21008</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="D20" s="4">
+        <v>79331</v>
+      </c>
+      <c r="E20" s="5">
+        <v>23432</v>
+      </c>
+      <c r="F20" s="5">
+        <v>73331</v>
+      </c>
+      <c r="G20">
         <v>21412</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11">
-        <v>23129</v>
-      </c>
-      <c r="D11">
-        <v>79331</v>
-      </c>
-      <c r="E11">
+      <c r="H20" s="10">
+        <v>77326</v>
+      </c>
+      <c r="I20" s="10">
+        <v>67917</v>
+      </c>
+      <c r="J20" s="10">
+        <v>79543</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>22927</v>
+      </c>
+      <c r="D21" s="4">
+        <v>72341</v>
+      </c>
+      <c r="E21" s="5">
+        <v>68543</v>
+      </c>
+      <c r="F21" s="5">
         <v>23432</v>
       </c>
-      <c r="F11">
-        <v>73331</v>
-      </c>
-      <c r="G11" s="1">
-        <v>21412</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>22442.2</v>
-      </c>
-      <c r="D13">
-        <v>41931.1</v>
-      </c>
-      <c r="E13">
-        <v>35677</v>
-      </c>
-      <c r="F13">
-        <v>26280.7</v>
-      </c>
-      <c r="G13">
-        <v>20987.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <f>STDEV(C2:C11)</f>
-        <v>901.86458702697348</v>
-      </c>
-      <c r="D14">
-        <f>STDEV(D2:D11)</f>
-        <v>26581.148706262575</v>
-      </c>
-      <c r="E14">
-        <f>STDEV(E2:E11)</f>
-        <v>21825.374498505174</v>
-      </c>
-      <c r="F14">
-        <f>STDEV(F2:F11)</f>
-        <v>16573.088909769089</v>
-      </c>
-      <c r="G14">
-        <f>STDEV(G2:G11)</f>
-        <v>1140.5002606069165</v>
+      <c r="G21">
+        <v>23028</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>22725</v>
+      </c>
+      <c r="D22" s="4">
+        <v>68154</v>
+      </c>
+      <c r="E22" s="5">
+        <v>23432</v>
+      </c>
+      <c r="F22" s="5">
+        <v>59528</v>
+      </c>
+      <c r="G22">
+        <v>22927</v>
+      </c>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>22629.05</v>
+      </c>
+      <c r="D23" s="4">
+        <v>49192.15</v>
+      </c>
+      <c r="E23" s="5">
+        <v>41446.949999999997</v>
+      </c>
+      <c r="F23" s="5">
+        <v>28311.7</v>
+      </c>
+      <c r="G23">
+        <v>22044.55</v>
+      </c>
+      <c r="H23" s="10">
+        <v>34996.800000000003</v>
+      </c>
+      <c r="I23" s="10">
+        <v>30379.7</v>
+      </c>
+      <c r="J23" s="10">
+        <v>36049.800000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <f>_xlfn.STDEV.P(C3:C22)</f>
+        <v>1015.2760942226504</v>
+      </c>
+      <c r="D24" s="4">
+        <f>_xlfn.STDEV.P(D3:D22)</f>
+        <v>25775.589549562199</v>
+      </c>
+      <c r="E24" s="5">
+        <f>_xlfn.STDEV.P(E3:E22)</f>
+        <v>24075.872670528475</v>
+      </c>
+      <c r="F24" s="5">
+        <f>_xlfn.STDEV.P(F3:F22)</f>
+        <v>16388.035898483991</v>
+      </c>
+      <c r="G24">
+        <f>_xlfn.STDEV.P(G3:G22)</f>
+        <v>3404.2105762569977</v>
+      </c>
+      <c r="H24" s="10">
+        <f>_xlfn.STDEV.P(H3:H22)</f>
+        <v>21687.418102669573</v>
+      </c>
+      <c r="I24" s="10">
+        <f>_xlfn.STDEV.P(I3:I22)</f>
+        <v>19468.393842584959</v>
+      </c>
+      <c r="J24" s="10">
+        <f>_xlfn.STDEV.P(J3:J22)</f>
+        <v>23033.85809107975</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D1:F1"/>
+    <mergeCell ref="H1:J1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
